--- a/Bolao_CLUBES_2025_Nome.xlsx
+++ b/Bolao_CLUBES_2025_Nome.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="EstaPastaDeTrabalho"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\Bolao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C90A6-8C3A-492F-A8AC-017ADCFE7BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bolao2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="51">
   <si>
     <t>Inter Miami</t>
   </si>
@@ -140,9 +133,6 @@
     <t>Ulsan</t>
   </si>
   <si>
-    <t>Memelodi Sundowns</t>
-  </si>
-  <si>
     <t>Monterrey</t>
   </si>
   <si>
@@ -177,9 +167,6 @@
   </si>
   <si>
     <t>Juventus</t>
-  </si>
-  <si>
-    <t>Atlético de Madrid</t>
   </si>
   <si>
     <t>15h</t>
@@ -191,15 +178,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="ddd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="ddd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -208,374 +191,45 @@
     <font>
       <sz val="11"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,249 +257,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -866,86 +281,43 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -959,9 +331,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>226060</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Text Box 1"/>
+        <xdr:cNvPr id="1026" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1065,13 +443,6 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1087,6 +458,11 @@
             </a:rPr>
             <a:t>(uma pessoa pode fazer quantos prognósticos quiser)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1099,6 +475,41 @@
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>- Pontuação (para cada um dos 48 jogos da fase classificatória):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>  1) acerta-se o placar: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>10 pontos</a:t>
+          </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1119,7 +530,17 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>- Pontuação (para cada um dos 48 jogos da fase classificatória):</a:t>
+            <a:t>  2) acertam-se o vencedor e a diferença de gols: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>5 pontos</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1141,7 +562,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>  1) acerta-se o placar: </a:t>
+            <a:t>  3) acerta-se o vencedor, errando-se a diferença de gols: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1151,7 +572,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>10 pontos</a:t>
+            <a:t>3 pontos</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1173,7 +594,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>  2) acertam-se o vencedor e a diferença de gols: </a:t>
+            <a:t>  4) acerta-se o empate, errando-se o placar:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1183,7 +604,7 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>5 pontos</a:t>
+            <a:t> 4 pontos</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1197,26 +618,6 @@
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>  3) acerta-se o vencedor, errando-se a diferença de gols: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>3 pontos</a:t>
-          </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1237,7 +638,22 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>  4) acerta-se o empate, errando-se o placar:</a:t>
+            <a:t>- A pontuação final é a soma da pontuação de cada jogo e ao final da fase classificatória da Copa será feita a premiação:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>  1) quem tiver mais pontos recebe </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -1247,7 +663,111 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t> 4 pontos</a:t>
+            <a:t>80%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t> do total arrecadado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>  2) o segundo com mais pontos </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>recebe </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>12%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t> do total arrecadado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>  3) o terceiro com mais pontos recebe </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>8%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t> do total arrecadado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1281,8 +801,13 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>- A pontuação final é a soma da pontuação de cada jogo e ao final da fase classificatória da Copa será feita a premiação:</a:t>
-          </a:r>
+            <a:t>- Caso dois ou mais prognósticos atinjam a mesma pontuação, o critério de desempate será a quantidade de acerto de placares. Permanecendo o empate, o prêmio será dividido igualmente entre os autores dos prognósticos.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1298,203 +823,6 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>  1) quem tiver mais pontos recebe </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>80%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t> do total arrecadado. </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>  2) o segundo com mais pontos </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>recebe </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>12%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t> do total arrecadado. </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>  3) o terceiro com mais pontos recebe </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>8%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t> do total arrecadado</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>- Caso dois ou mais prognósticos atinjam a mesma pontuação, o critério de desempate será a quantidade de acerto de placares. Permanecendo o empate, o prêmio será dividido igualmente entre os autores dos prognósticos.</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -1502,13 +830,6 @@
             </a:rPr>
             <a:t>- O arquivo, preenchido com os prognósticos, deve ser enviado junto com o comprovante de pagamento para um dos seguintes e-mails:</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1548,15 +869,6 @@
             </a:rPr>
             <a:t>  (Roberto Almeida)</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1735,6 +1047,11 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1747,6 +1064,133 @@
           <a:pPr algn="l" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>O pagamento pode ser feito via PIX e o comprovante deverá ser enviado </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>junto com o prognóstico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr indent="457200" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>chave: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>robertoalmeida3@gmail.com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t> (Roberto de Almeida Souza)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>		ou</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr indent="457200" algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>chave: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>silvoso@gmail.com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>(Marcos Martinez Silvoso)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1767,182 +1211,8 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204"/>
             </a:rPr>
-            <a:t>O pagamento pode ser feito via PIX e o comprovante deverá ser enviado </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>junto com o prognóstico</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr indent="457200" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>chave: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>robertoalmeida3@gmail.com</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t> (Roberto de Almeida Souza)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>		ou</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr indent="457200" algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>chave: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>silvoso@gmail.com</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
-            <a:t>(Marcos Martinez Silvoso)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204"/>
-            </a:rPr>
             <a:t>Boa Sorte!</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1961,9 +1231,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57505</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="AutoShape 7" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBhUIBwgTFhUXGR0aGRgYFhsfGxceHx0aHhkgHx8iISggIR0lJCIcJDEiKC4rNS4uHB80ODQ4OSk5MC8BCgoKDg0OGxAQGjckHyQ4NzQ3Ly8yNy82Miw2NDYyMjg0LCw0NTQsLC84LjcvLSwvMDQsLDg0Ny8sNiwvLDQsL//AABEIALcBEwMBEQACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAAAwUGBAEHAv/EADsQAAIBAgMFBQcDAgUFAAAAAAABAgMRBAUhEhUxVZIGFkFRUxMiMmFxgZEUQqEj0TODssLxBzZSYnP/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAwQFAgYBB//EADkRAQABAgMFBgQFAgcBAQAAAAABAgMEERQhMVFSkQUSFUFToWFxscETIjKB8HLRBiNCQ2Lh8YI0/9oADAMBAAIRAxEAPwDFma/SgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAF/wBzc79CHWjM8YwnNPSVPXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Ppp45igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABu2rG8Q1sXh6DtVrJfcnt4W7cjOI2fHZ9XFVymnfKthmtPezg5e5s/Fd2/bbwt56Xv8AnS/PZ1WmiuJjvTO7Z8fPvZ8PLKd3ltrxiP8ANmnyy+P9vv8AXZZUcVQr/wCFVTt8zPuYa5bjOqPv9Fim5TVulMQuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPG7K59pjOYglk8b2iwGFk94e0nUu2oR0UFdqOt0tbfM9DTg8RNU02JimmNmfnM+e7a4w+Hm/T35V77XRwFD2mDwN3UbalNtWSsrcNbfJk93szUXPz3P0xEZR8vv8kuGwmVVdEzun6o32kxFPBRzWNGn7VzafuvZtaPhtXWnjfxOpwFmqNPnOzb8ctnwy357HFNiNXNOezJM+1lLGUlisXgGtiVnsNvaunpeytwvZvw+Zxa7OqsVVUW7n6o2Z7HV/Cd67TRE/H9lll2fYLF1IvLXUjK6Uqcr6p+Kd2tPr9itcwd+PyYjKYndVwn65cfJFfszh8pj/1qTASAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABz43HYXAwU8XXjFPhd8bauy4sktWbl2cqIzEeXZnhMxp7WFqpuybj+6N/NflfY6vYe5Zn88fvxfInOM1B2l7NQxMni8NSj/wCy1UuN5NNPXTRJp2/g1MD2nVRMU3Jmf5u27vmU11Wv0Ts4fz3UMcur+ziqlRbMtnhGOy4qzSas0l4t6XvwZoxfpiqaojbG3bPnt+WfDu5fVWqxNNNWfdnOfPbsnjnHtnufuGEqe39m8Y29lJyc42lHR7Dfivt/5eZz+LEbe7G/PL48f5s3E34yz7se+yeO/f7I93VXQd6l4R913S+G99FZK61tPXi/Ik/HpivOY2zlOyfP33+dJTi4qqmqKdv77+O3fHwjY0vZns4sBbE4qlBTsrJXunrduTfjp7qSWhkY7tGbszTRM5benDKPqs1VVXJzqmcvKF1jsywmAV8TWSfG3i/sZ9rD3Lv6IJqiE2GxNDFU/aYeqpLzTOK7dVE5VRlL7mlOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApe0+FpYrDQValJ2lo4JOUX8r+Gjv8AY0Ozpud+Yt7Zy3cY/ZXxE5U7dyDsrg6OFlP2FKetrymltPySt4Kz/JJ2lN38sXIy4Rt+7nDTnnluZ/OO1WcYbN6uGw9SNozcYrYTej0NPDdl4auxTXXE5zGe9q27Fubffqlm8dOeLe3iaEH52jJbOttfLVfTQ07NNFGyiZ6xt+SC1aw01zFMzEx8Y2/Jb9i8hyvM415ZkpKNNU7bLtbac076PyRo2ae/nmj7Qv3sNNFNqrfn5RPD4NTu3IcpaeDoVJTspKLbT2dG3eS8n89dPMjvYC1cic4mfhmy4uYm9VnsmY+S+hWhUi3SlUvFxupRS+JrThxRj9o9j4Wxha7tETnHx+MOrOIuzXTFW6VD2py/D4zEwlXoTbS0lCKbt5O6enl9zH7NqvRTVFrbxjb9ljEVZTGbu7MYajhcu2MPScY7T4pbUn4t2/H2K3aFVybv+Zv+nVJYnOhblFMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc2JzHB4GqnisQo+NtW+DXBXfE3f8P/kxM11bIynb0VsVbquUZUxmq12oymM5VZV5KLs7+znaz4Phwd0Xu27NeKuUTZ25RMcNufxfcHhbtuJpqjb84YDMK9LEdo54ijacZVG180+BdsWqow1Nudk5RHyaV6JjCT5ZR902LlFYO6wiW1Hy+HW+vzuz7Rg66blz/Mifw6ojf+ry/LxjZtYeFu1VXrcbdvt8/ovf+m0XOni4xpqT2aVovg3/AFbX+5qYbzXO2p/Nb/f7LjFYWpQlFV6jipfsu5OKdvPRN6rxu1qXInNHYu/iRVFG/LflG2VtWxVDCZXUxVeWzTU1LaknqnKGvnxdl9EZnatuq5hK6KIzmcvrCjh6Z/Hpp8//AFyUu1GU06/v15LRr/Dn+3j4X0MfsKicL3/xdmfdy8+PBexmFu3cu5GeXxjz3OjLMbhsVFxoV02nqv3LyunqvuZPbn5sVNyP0zllPlOzi7w1uqi1EVRlv+ruMdOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZan2bqz7WTr4iO1QqPb+NpqcVeKdmno72tpayPXdjX7OIpps1R+amJ2fD+b3GLxE0WI7s5TGz9p3o6sclXaJZJHL6clNO7Un7jW3LZf4vx4sm7aortU/jWau73fKPjOXX7OMFN6q3NyqZ3+fTZ9GQx1CGX57UpUMLJxjKWzH3nom9b2baWuvyOrVc3sNTNVWUzEZz8f+1+uYvWO7NeXH32IK+YT9g1Og7TXu34WXFrTXX8Fy5bs1xbptU92qjZVMT+qfLPlUbOA/DuTVN3PKd0Rtj3e0aLwb/UYXGuM4xUlKO0ve0vH6/U24w9vuRRTbqivvTTnn5bcqss8u7Mx9cpmcs8Oe171d2ark0zbyz7uXtE5Z97Lzz3+WTdZdmWT47Kf1WJzGlCvUi9pTqJbM/hbte6Tav8k15JFSi7E0xMy0LlnEWrk0UUzNMTsmI++XxWM8Xk2Z5VHKqmPo1HLYThGrdytKMnazTsrfhFLtPETbwtddE7Y/vD5Zt3qcRFzuTTGfDc4cqWS4rPK2U1MFTj7PZUbzd6jtaVvHRJK13oUex7M12vxL096atuUxu2z9d6zjpvUUU3KZnKc0OW5JiYdo3iVFRowe1F7V5Tls7Orve2r4+SKHbV6zZiqxRvnLZ5RG9Nh7012ImZzn/tqzy7sAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyWYYXN867Q1MtWPdGlFRa2U7zTjq1a19bp3dvkes7EtWe7TNP66s854ZTu/fYXr1uzaiuaO9Px3LTIuz+Ayaclhqd5LTblba8eHgl9CD/EWdFVFETsyz/dDZxdzEZzX0Z3Mf+4v8qv8A66hHY/8Ay/8A1T9IP9qr+qPurKeFp42hhcPV4OhV+zW00y5Xcm3VeqjmpT11zRVdqjyqj7qulQxtXD0qE5JRqKUovj8PxXtreyPQV9sTFVdcR/mREUTPw8tm7PbtnP8AZQjsbDxcnLOaaJz7uzLOd35vOn4ZZ8ZXGEpWwaVGUbNU3FypK8febltX1b10atd2tY8/cn885xOzPPKZ4ZR8I/fd55tOuqIryq37fPf8vvw80+XVKdXPcJKnFL+pVWkNlu11d6ePG3hexFfpmnD3onhT55/z7u8piiuJ/wCPnm1mbdmMvzurt1ouE7fHDj8rrg/v+Tr/AA5ncpuU1TsjLL4b1C9jLmHmO7unPOJVHZ+GbZdniy2rjfa0thybad48VHV8Lvwu+DOO27VnKqqf1xMRnx2Z7vhCe3dt3bUV0092eEbv5+zXHmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5sZi1g5RmqLk2+CXhZ+Nvn/Jrdj4mnD35uVbssuv/iri6e9RkiwGL/U157VGUXxV76q7+X0Je2sXRiqqK6N0bHGDp7kTEspmkdjtM4PiqVb+XOS/holw854TP/lT9oWJjK1V/VH0lw5b8eE/+FX/AHFnEbr39VKS/wD7v9UfdBhdqGDweImvctOm5bWylKTbSb8NNf8Agt3LFc03q485jyz3RCXvRN29RG/ZPHdKVYt0IuFSFSUqeytU9qpduLcXxS0urcSCKO9+mYiKs926MtsRMec/Qqw1Fyum5MRntynZ+XZ/Il05VCdXtHhqMXKTjt1JNyu4xd7KS8JL3VbzaIMRMU4W7VOyJyiMo3zHDjE7Zd/7dU8co6b/ANm1xGY/o8RsqhKWmtvDXTwIOxMbRhYrmuN+Xtn/AHZOMo78xEeTzLKyrUm3TcXfVNfj7cf5KXa1+L+Im5TunL6ZJsLHdt5OwzVkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoc6yzG4zG+0oJbNktalvqktl2+q2fDXy9T2P2pgcLh/w79OdUzP+mJ2fPOPv8mZjMLeu3O9ROz55fafshy3KMfhsdGrNJRT8KjbS+atrfycpeH2n7T7X7Pv4Wuzap/NsynuxHnG6c9mzP8A0wjw2ExFF2Kqp2fOf7feVrmOVYfHVFWa2aii4qaWtmtU/NHl7OJrtR3d9O/L4w1a6e9GSpwfZd4eVL2uKbVOEoLZirtSvdu8tOPzNyzj8Hcmr8bOO9MT8Nnxjb7Qhvzeq73diPzTn9f7kslqyh+llgqHs9lR2ffS4t389rxvtfc2PFez8+9+J+2U/wBlGNbE96IjvZ555/zpuQz7KYqP9PB5xVjDTScYtq3CzT/sZWJ7SwETnbomqekfz9mrbu11bblunP8Af6f9rnJckwuTwfsNqU5fFOWspf2XyMPFY25iJjvbIjdEbod1VzVO1V4/J8fiMbOqknFt2/qO9vDwuvopL6HqMD2x2baw9Fq5RtiNs9yJjPrt+fdn5sW/g8RXcmqJ2fOf7fd05HluNweMdTFW2XFrSd9bq11sxWmuur+fnS7a7TwWLsRTYpyqifOmI2ZT55z8Nmz5JsFhr1quZuTsy45/aPuvTzLSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Sb/zjmVXqPc6DDenHRv6a1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsG/wDOOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/ADjmVXqGgw3px0NNa5YN/wCccyq9Q0GG9OOhprXLBv8AzjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsK4tpwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/2Q=="/>
+        <xdr:cNvPr id="52" name="AutoShape 7" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBhUIBwgTFhUXGR0aGRgYFhsfGxceHx0aHhkgHx8iISggIR0lJCIcJDEiKC4rNS4uHB80ODQ4OSk5MC8BCgoKDg0OGxAQGjckHyQ4NzQ3Ly8yNy82Miw2NDYyMjg0LCw0NTQsLC84LjcvLSwvMDQsLDg0Ny8sNiwvLDQsL//AABEIALcBEwMBEQACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAAAwUGBAEHAv/EADsQAAIBAgMFBQcDAgUFAAAAAAABAgMRBAUhEhUxVZIGFkFRUxMiMmFxgZEUQqEj0TODssLxBzZSYnP/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAwQFAgYBB//EADkRAQABAgMFBgQFAgcBAQAAAAABAgMEERQhMVFSkQUSFUFToWFxscETIjKB8HLRBiNCQ2Lh8YI0/9oADAMBAAIRAxEAPwDFma/SgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAF/wBzc79CHWjM8YwnNPSVPXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Ppp45igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABu2rG8Q1sXh6DtVrJfcnt4W7cjOI2fHZ9XFVymnfKthmtPezg5e5s/Fd2/bbwt56Xv8AnS/PZ1WmiuJjvTO7Z8fPvZ8PLKd3ltrxiP8ANmnyy+P9vv8AXZZUcVQr/wCFVTt8zPuYa5bjOqPv9Fim5TVulMQuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPG7K59pjOYglk8b2iwGFk94e0nUu2oR0UFdqOt0tbfM9DTg8RNU02JimmNmfnM+e7a4w+Hm/T35V77XRwFD2mDwN3UbalNtWSsrcNbfJk93szUXPz3P0xEZR8vv8kuGwmVVdEzun6o32kxFPBRzWNGn7VzafuvZtaPhtXWnjfxOpwFmqNPnOzb8ctnwy357HFNiNXNOezJM+1lLGUlisXgGtiVnsNvaunpeytwvZvw+Zxa7OqsVVUW7n6o2Z7HV/Cd67TRE/H9lll2fYLF1IvLXUjK6Uqcr6p+Kd2tPr9itcwd+PyYjKYndVwn65cfJFfszh8pj/1qTASAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABz43HYXAwU8XXjFPhd8bauy4sktWbl2cqIzEeXZnhMxp7WFqpuybj+6N/NflfY6vYe5Zn88fvxfInOM1B2l7NQxMni8NSj/wCy1UuN5NNPXTRJp2/g1MD2nVRMU3Jmf5u27vmU11Wv0Ts4fz3UMcur+ziqlRbMtnhGOy4qzSas0l4t6XvwZoxfpiqaojbG3bPnt+WfDu5fVWqxNNNWfdnOfPbsnjnHtnufuGEqe39m8Y29lJyc42lHR7Dfivt/5eZz+LEbe7G/PL48f5s3E34yz7se+yeO/f7I93VXQd6l4R913S+G99FZK61tPXi/Ik/HpivOY2zlOyfP33+dJTi4qqmqKdv77+O3fHwjY0vZns4sBbE4qlBTsrJXunrduTfjp7qSWhkY7tGbszTRM5benDKPqs1VVXJzqmcvKF1jsywmAV8TWSfG3i/sZ9rD3Lv6IJqiE2GxNDFU/aYeqpLzTOK7dVE5VRlL7mlOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApe0+FpYrDQValJ2lo4JOUX8r+Gjv8AY0Ozpud+Yt7Zy3cY/ZXxE5U7dyDsrg6OFlP2FKetrymltPySt4Kz/JJ2lN38sXIy4Rt+7nDTnnluZ/OO1WcYbN6uGw9SNozcYrYTej0NPDdl4auxTXXE5zGe9q27Fubffqlm8dOeLe3iaEH52jJbOttfLVfTQ07NNFGyiZ6xt+SC1aw01zFMzEx8Y2/Jb9i8hyvM415ZkpKNNU7bLtbac076PyRo2ae/nmj7Qv3sNNFNqrfn5RPD4NTu3IcpaeDoVJTspKLbT2dG3eS8n89dPMjvYC1cic4mfhmy4uYm9VnsmY+S+hWhUi3SlUvFxupRS+JrThxRj9o9j4Wxha7tETnHx+MOrOIuzXTFW6VD2py/D4zEwlXoTbS0lCKbt5O6enl9zH7NqvRTVFrbxjb9ljEVZTGbu7MYajhcu2MPScY7T4pbUn4t2/H2K3aFVybv+Zv+nVJYnOhblFMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc2JzHB4GqnisQo+NtW+DXBXfE3f8P/kxM11bIynb0VsVbquUZUxmq12oymM5VZV5KLs7+znaz4Phwd0Xu27NeKuUTZ25RMcNufxfcHhbtuJpqjb84YDMK9LEdo54ijacZVG180+BdsWqow1Nudk5RHyaV6JjCT5ZR902LlFYO6wiW1Hy+HW+vzuz7Rg66blz/Mifw6ojf+ry/LxjZtYeFu1VXrcbdvt8/ovf+m0XOni4xpqT2aVovg3/AFbX+5qYbzXO2p/Nb/f7LjFYWpQlFV6jipfsu5OKdvPRN6rxu1qXInNHYu/iRVFG/LflG2VtWxVDCZXUxVeWzTU1LaknqnKGvnxdl9EZnatuq5hK6KIzmcvrCjh6Z/Hpp8//AFyUu1GU06/v15LRr/Dn+3j4X0MfsKicL3/xdmfdy8+PBexmFu3cu5GeXxjz3OjLMbhsVFxoV02nqv3LyunqvuZPbn5sVNyP0zllPlOzi7w1uqi1EVRlv+ruMdOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZan2bqz7WTr4iO1QqPb+NpqcVeKdmno72tpayPXdjX7OIpps1R+amJ2fD+b3GLxE0WI7s5TGz9p3o6sclXaJZJHL6clNO7Un7jW3LZf4vx4sm7aortU/jWau73fKPjOXX7OMFN6q3NyqZ3+fTZ9GQx1CGX57UpUMLJxjKWzH3nom9b2baWuvyOrVc3sNTNVWUzEZz8f+1+uYvWO7NeXH32IK+YT9g1Og7TXu34WXFrTXX8Fy5bs1xbptU92qjZVMT+qfLPlUbOA/DuTVN3PKd0Rtj3e0aLwb/UYXGuM4xUlKO0ve0vH6/U24w9vuRRTbqivvTTnn5bcqss8u7Mx9cpmcs8Oe171d2ark0zbyz7uXtE5Z97Lzz3+WTdZdmWT47Kf1WJzGlCvUi9pTqJbM/hbte6Tav8k15JFSi7E0xMy0LlnEWrk0UUzNMTsmI++XxWM8Xk2Z5VHKqmPo1HLYThGrdytKMnazTsrfhFLtPETbwtddE7Y/vD5Zt3qcRFzuTTGfDc4cqWS4rPK2U1MFTj7PZUbzd6jtaVvHRJK13oUex7M12vxL096atuUxu2z9d6zjpvUUU3KZnKc0OW5JiYdo3iVFRowe1F7V5Tls7Orve2r4+SKHbV6zZiqxRvnLZ5RG9Nh7012ImZzn/tqzy7sAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyWYYXN867Q1MtWPdGlFRa2U7zTjq1a19bp3dvkes7EtWe7TNP66s854ZTu/fYXr1uzaiuaO9Px3LTIuz+Ayaclhqd5LTblba8eHgl9CD/EWdFVFETsyz/dDZxdzEZzX0Z3Mf+4v8qv8A66hHY/8Ay/8A1T9IP9qr+qPurKeFp42hhcPV4OhV+zW00y5Xcm3VeqjmpT11zRVdqjyqj7qulQxtXD0qE5JRqKUovj8PxXtreyPQV9sTFVdcR/mREUTPw8tm7PbtnP8AZQjsbDxcnLOaaJz7uzLOd35vOn4ZZ8ZXGEpWwaVGUbNU3FypK8febltX1b10atd2tY8/cn885xOzPPKZ4ZR8I/fd55tOuqIryq37fPf8vvw80+XVKdXPcJKnFL+pVWkNlu11d6ePG3hexFfpmnD3onhT55/z7u8piiuJ/wCPnm1mbdmMvzurt1ouE7fHDj8rrg/v+Tr/AA5ncpuU1TsjLL4b1C9jLmHmO7unPOJVHZ+GbZdniy2rjfa0thybad48VHV8Lvwu+DOO27VnKqqf1xMRnx2Z7vhCe3dt3bUV0092eEbv5+zXHmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5sZi1g5RmqLk2+CXhZ+Nvn/Jrdj4mnD35uVbssuv/iri6e9RkiwGL/U157VGUXxV76q7+X0Je2sXRiqqK6N0bHGDp7kTEspmkdjtM4PiqVb+XOS/holw854TP/lT9oWJjK1V/VH0lw5b8eE/+FX/AHFnEbr39VKS/wD7v9UfdBhdqGDweImvctOm5bWylKTbSb8NNf8Agt3LFc03q485jyz3RCXvRN29RG/ZPHdKVYt0IuFSFSUqeytU9qpduLcXxS0urcSCKO9+mYiKs926MtsRMec/Qqw1Fyum5MRntynZ+XZ/Il05VCdXtHhqMXKTjt1JNyu4xd7KS8JL3VbzaIMRMU4W7VOyJyiMo3zHDjE7Zd/7dU8co6b/ANm1xGY/o8RsqhKWmtvDXTwIOxMbRhYrmuN+Xtn/AHZOMo78xEeTzLKyrUm3TcXfVNfj7cf5KXa1+L+Im5TunL6ZJsLHdt5OwzVkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoc6yzG4zG+0oJbNktalvqktl2+q2fDXy9T2P2pgcLh/w79OdUzP+mJ2fPOPv8mZjMLeu3O9ROz55fafshy3KMfhsdGrNJRT8KjbS+atrfycpeH2n7T7X7Pv4Wuzap/NsynuxHnG6c9mzP8A0wjw2ExFF2Kqp2fOf7feVrmOVYfHVFWa2aii4qaWtmtU/NHl7OJrtR3d9O/L4w1a6e9GSpwfZd4eVL2uKbVOEoLZirtSvdu8tOPzNyzj8Hcmr8bOO9MT8Nnxjb7Qhvzeq73diPzTn9f7kslqyh+llgqHs9lR2ffS4t389rxvtfc2PFez8+9+J+2U/wBlGNbE96IjvZ555/zpuQz7KYqP9PB5xVjDTScYtq3CzT/sZWJ7SwETnbomqekfz9mrbu11bblunP8Af6f9rnJckwuTwfsNqU5fFOWspf2XyMPFY25iJjvbIjdEbod1VzVO1V4/J8fiMbOqknFt2/qO9vDwuvopL6HqMD2x2baw9Fq5RtiNs9yJjPrt+fdn5sW/g8RXcmqJ2fOf7fd05HluNweMdTFW2XFrSd9bq11sxWmuur+fnS7a7TwWLsRTYpyqifOmI2ZT55z8Nmz5JsFhr1quZuTsy45/aPuvTzLSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Sb/zjmVXqPc6DDenHRv6a1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsG/wDOOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/ADjmVXqGgw3px0NNa5YN/wCccyq9Q0GG9OOhprXLBv8AzjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsK4tpwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/2Q==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1989,9 +1265,15 @@
       <xdr:rowOff>240385</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="308610"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBhUIBwgTFhUXGR0aGRgYFhsfGxceHx0aHhkgHx8iISggIR0lJCIcJDEiKC4rNS4uHB80ODQ4OSk5MC8BCgoKDg0OGxAQGjckHyQ4NzQ3Ly8yNy82Miw2NDYyMjg0LCw0NTQsLC84LjcvLSwvMDQsLDg0Ny8sNiwvLDQsL//AABEIALcBEwMBEQACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAAAwUGBAEHAv/EADsQAAIBAgMFBQcDAgUFAAAAAAABAgMRBAUhEhUxVZIGFkFRUxMiMmFxgZEUQqEj0TODssLxBzZSYnP/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAwQFAgYBB//EADkRAQABAgMFBgQFAgcBAQAAAAABAgMEERQhMVFSkQUSFUFToWFxscETIjKB8HLRBiNCQ2Lh8YI0/9oADAMBAAIRAxEAPwDFma/SgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAF/wBzc79CHWjM8YwnNPSVPXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Ppp45igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABu2rG8Q1sXh6DtVrJfcnt4W7cjOI2fHZ9XFVymnfKthmtPezg5e5s/Fd2/bbwt56Xv8AnS/PZ1WmiuJjvTO7Z8fPvZ8PLKd3ltrxiP8ANmnyy+P9vv8AXZZUcVQr/wCFVTt8zPuYa5bjOqPv9Fim5TVulMQuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPG7K59pjOYglk8b2iwGFk94e0nUu2oR0UFdqOt0tbfM9DTg8RNU02JimmNmfnM+e7a4w+Hm/T35V77XRwFD2mDwN3UbalNtWSsrcNbfJk93szUXPz3P0xEZR8vv8kuGwmVVdEzun6o32kxFPBRzWNGn7VzafuvZtaPhtXWnjfxOpwFmqNPnOzb8ctnwy357HFNiNXNOezJM+1lLGUlisXgGtiVnsNvaunpeytwvZvw+Zxa7OqsVVUW7n6o2Z7HV/Cd67TRE/H9lll2fYLF1IvLXUjK6Uqcr6p+Kd2tPr9itcwd+PyYjKYndVwn65cfJFfszh8pj/1qTASAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABz43HYXAwU8XXjFPhd8bauy4sktWbl2cqIzEeXZnhMxp7WFqpuybj+6N/NflfY6vYe5Zn88fvxfInOM1B2l7NQxMni8NSj/wCy1UuN5NNPXTRJp2/g1MD2nVRMU3Jmf5u27vmU11Wv0Ts4fz3UMcur+ziqlRbMtnhGOy4qzSas0l4t6XvwZoxfpiqaojbG3bPnt+WfDu5fVWqxNNNWfdnOfPbsnjnHtnufuGEqe39m8Y29lJyc42lHR7Dfivt/5eZz+LEbe7G/PL48f5s3E34yz7se+yeO/f7I93VXQd6l4R913S+G99FZK61tPXi/Ik/HpivOY2zlOyfP33+dJTi4qqmqKdv77+O3fHwjY0vZns4sBbE4qlBTsrJXunrduTfjp7qSWhkY7tGbszTRM5benDKPqs1VVXJzqmcvKF1jsywmAV8TWSfG3i/sZ9rD3Lv6IJqiE2GxNDFU/aYeqpLzTOK7dVE5VRlL7mlOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApe0+FpYrDQValJ2lo4JOUX8r+Gjv8AY0Ozpud+Yt7Zy3cY/ZXxE5U7dyDsrg6OFlP2FKetrymltPySt4Kz/JJ2lN38sXIy4Rt+7nDTnnluZ/OO1WcYbN6uGw9SNozcYrYTej0NPDdl4auxTXXE5zGe9q27Fubffqlm8dOeLe3iaEH52jJbOttfLVfTQ07NNFGyiZ6xt+SC1aw01zFMzEx8Y2/Jb9i8hyvM415ZkpKNNU7bLtbac076PyRo2ae/nmj7Qv3sNNFNqrfn5RPD4NTu3IcpaeDoVJTspKLbT2dG3eS8n89dPMjvYC1cic4mfhmy4uYm9VnsmY+S+hWhUi3SlUvFxupRS+JrThxRj9o9j4Wxha7tETnHx+MOrOIuzXTFW6VD2py/D4zEwlXoTbS0lCKbt5O6enl9zH7NqvRTVFrbxjb9ljEVZTGbu7MYajhcu2MPScY7T4pbUn4t2/H2K3aFVybv+Zv+nVJYnOhblFMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc2JzHB4GqnisQo+NtW+DXBXfE3f8P/kxM11bIynb0VsVbquUZUxmq12oymM5VZV5KLs7+znaz4Phwd0Xu27NeKuUTZ25RMcNufxfcHhbtuJpqjb84YDMK9LEdo54ijacZVG180+BdsWqow1Nudk5RHyaV6JjCT5ZR902LlFYO6wiW1Hy+HW+vzuz7Rg66blz/Mifw6ojf+ry/LxjZtYeFu1VXrcbdvt8/ovf+m0XOni4xpqT2aVovg3/AFbX+5qYbzXO2p/Nb/f7LjFYWpQlFV6jipfsu5OKdvPRN6rxu1qXInNHYu/iRVFG/LflG2VtWxVDCZXUxVeWzTU1LaknqnKGvnxdl9EZnatuq5hK6KIzmcvrCjh6Z/Hpp8//AFyUu1GU06/v15LRr/Dn+3j4X0MfsKicL3/xdmfdy8+PBexmFu3cu5GeXxjz3OjLMbhsVFxoV02nqv3LyunqvuZPbn5sVNyP0zllPlOzi7w1uqi1EVRlv+ruMdOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZan2bqz7WTr4iO1QqPb+NpqcVeKdmno72tpayPXdjX7OIpps1R+amJ2fD+b3GLxE0WI7s5TGz9p3o6sclXaJZJHL6clNO7Un7jW3LZf4vx4sm7aortU/jWau73fKPjOXX7OMFN6q3NyqZ3+fTZ9GQx1CGX57UpUMLJxjKWzH3nom9b2baWuvyOrVc3sNTNVWUzEZz8f+1+uYvWO7NeXH32IK+YT9g1Og7TXu34WXFrTXX8Fy5bs1xbptU92qjZVMT+qfLPlUbOA/DuTVN3PKd0Rtj3e0aLwb/UYXGuM4xUlKO0ve0vH6/U24w9vuRRTbqivvTTnn5bcqss8u7Mx9cpmcs8Oe171d2ark0zbyz7uXtE5Z97Lzz3+WTdZdmWT47Kf1WJzGlCvUi9pTqJbM/hbte6Tav8k15JFSi7E0xMy0LlnEWrk0UUzNMTsmI++XxWM8Xk2Z5VHKqmPo1HLYThGrdytKMnazTsrfhFLtPETbwtddE7Y/vD5Zt3qcRFzuTTGfDc4cqWS4rPK2U1MFTj7PZUbzd6jtaVvHRJK13oUex7M12vxL096atuUxu2z9d6zjpvUUU3KZnKc0OW5JiYdo3iVFRowe1F7V5Tls7Orve2r4+SKHbV6zZiqxRvnLZ5RG9Nh7012ImZzn/tqzy7sAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyWYYXN867Q1MtWPdGlFRa2U7zTjq1a19bp3dvkes7EtWe7TNP66s854ZTu/fYXr1uzaiuaO9Px3LTIuz+Ayaclhqd5LTblba8eHgl9CD/EWdFVFETsyz/dDZxdzEZzX0Z3Mf+4v8qv8A66hHY/8Ay/8A1T9IP9qr+qPurKeFp42hhcPV4OhV+zW00y5Xcm3VeqjmpT11zRVdqjyqj7qulQxtXD0qE5JRqKUovj8PxXtreyPQV9sTFVdcR/mREUTPw8tm7PbtnP8AZQjsbDxcnLOaaJz7uzLOd35vOn4ZZ8ZXGEpWwaVGUbNU3FypK8febltX1b10atd2tY8/cn885xOzPPKZ4ZR8I/fd55tOuqIryq37fPf8vvw80+XVKdXPcJKnFL+pVWkNlu11d6ePG3hexFfpmnD3onhT55/z7u8piiuJ/wCPnm1mbdmMvzurt1ouE7fHDj8rrg/v+Tr/AA5ncpuU1TsjLL4b1C9jLmHmO7unPOJVHZ+GbZdniy2rjfa0thybad48VHV8Lvwu+DOO27VnKqqf1xMRnx2Z7vhCe3dt3bUV0092eEbv5+zXHmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5sZi1g5RmqLk2+CXhZ+Nvn/Jrdj4mnD35uVbssuv/iri6e9RkiwGL/U157VGUXxV76q7+X0Je2sXRiqqK6N0bHGDp7kTEspmkdjtM4PiqVb+XOS/holw854TP/lT9oWJjK1V/VH0lw5b8eE/+FX/AHFnEbr39VKS/wD7v9UfdBhdqGDweImvctOm5bWylKTbSb8NNf8Agt3LFc03q485jyz3RCXvRN29RG/ZPHdKVYt0IuFSFSUqeytU9qpduLcXxS0urcSCKO9+mYiKs926MtsRMec/Qqw1Fyum5MRntynZ+XZ/Il05VCdXtHhqMXKTjt1JNyu4xd7KS8JL3VbzaIMRMU4W7VOyJyiMo3zHDjE7Zd/7dU8co6b/ANm1xGY/o8RsqhKWmtvDXTwIOxMbRhYrmuN+Xtn/AHZOMo78xEeTzLKyrUm3TcXfVNfj7cf5KXa1+L+Im5TunL6ZJsLHdt5OwzVkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoc6yzG4zG+0oJbNktalvqktl2+q2fDXy9T2P2pgcLh/w79OdUzP+mJ2fPOPv8mZjMLeu3O9ROz55fafshy3KMfhsdGrNJRT8KjbS+atrfycpeH2n7T7X7Pv4Wuzap/NsynuxHnG6c9mzP8A0wjw2ExFF2Kqp2fOf7feVrmOVYfHVFWa2aii4qaWtmtU/NHl7OJrtR3d9O/L4w1a6e9GSpwfZd4eVL2uKbVOEoLZirtSvdu8tOPzNyzj8Hcmr8bOO9MT8Nnxjb7Qhvzeq73diPzTn9f7kslqyh+llgqHs9lR2ffS4t389rxvtfc2PFez8+9+J+2U/wBlGNbE96IjvZ555/zpuQz7KYqP9PB5xVjDTScYtq3CzT/sZWJ7SwETnbomqekfz9mrbu11bblunP8Af6f9rnJckwuTwfsNqU5fFOWspf2XyMPFY25iJjvbIjdEbod1VzVO1V4/J8fiMbOqknFt2/qO9vDwuvopL6HqMD2x2baw9Fq5RtiNs9yJjPrt+fdn5sW/g8RXcmqJ2fOf7fd05HluNweMdTFW2XFrSd9bq11sxWmuur+fnS7a7TwWLsRTYpyqifOmI2ZT55z8Nmz5JsFhr1quZuTsy45/aPuvTzLSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Sb/zjmVXqPc6DDenHRv6a1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsG/wDOOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/ADjmVXqGgw3px0NNa5YN/wCccyq9Q0GG9OOhprXLBv8AzjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsK4tpwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/2Q=="/>
+        <xdr:cNvPr id="2" name="AutoShape 7" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBwgHBhUIBwgTFhUXGR0aGRgYFhsfGxceHx0aHhkgHx8iISggIR0lJCIcJDEiKC4rNS4uHB80ODQ4OSk5MC8BCgoKDg0OGxAQGjckHyQ4NzQ3Ly8yNy82Miw2NDYyMjg0LCw0NTQsLC84LjcvLSwvMDQsLDg0Ny8sNiwvLDQsL//AABEIALcBEwMBEQACEQEDEQH/xAAbAAEAAwEBAQEAAAAAAAAAAAAAAwUGBAEHAv/EADsQAAIBAgMFBQcDAgUFAAAAAAABAgMRBAUhEhUxVZIGFkFRUxMiMmFxgZEUQqEj0TODssLxBzZSYnP/xAAbAQEAAwEBAQEAAAAAAAAAAAAAAwQFAgYBB//EADkRAQABAgMFBgQFAgcBAQAAAAABAgMEERQhMVFSkQUSFUFToWFxscETIjKB8HLRBiNCQ2Lh8YI0/9oADAMBAAIRAxEAPwDFma/SgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAF/wBzc79CHWjM8YwnNPSVPXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Hc3O/Qh1oeMYTmnpJrrPH2O5ud+hDrQ8YwnNPSTXWePsdzc79CHWh4xhOaekmus8fY7m536EOtDxjCc09JNdZ4+x3Nzv0IdaHjGE5p6Sa6zx9jubnfoQ60PGMJzT0k11nj7Ppp45igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABu2rG8Q1sXh6DtVrJfcnt4W7cjOI2fHZ9XFVymnfKthmtPezg5e5s/Fd2/bbwt56Xv8AnS/PZ1WmiuJjvTO7Z8fPvZ8PLKd3ltrxiP8ANmnyy+P9vv8AXZZUcVQr/wCFVTt8zPuYa5bjOqPv9Fim5TVulMQuwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPG7K59pjOYglk8b2iwGFk94e0nUu2oR0UFdqOt0tbfM9DTg8RNU02JimmNmfnM+e7a4w+Hm/T35V77XRwFD2mDwN3UbalNtWSsrcNbfJk93szUXPz3P0xEZR8vv8kuGwmVVdEzun6o32kxFPBRzWNGn7VzafuvZtaPhtXWnjfxOpwFmqNPnOzb8ctnwy357HFNiNXNOezJM+1lLGUlisXgGtiVnsNvaunpeytwvZvw+Zxa7OqsVVUW7n6o2Z7HV/Cd67TRE/H9lll2fYLF1IvLXUjK6Uqcr6p+Kd2tPr9itcwd+PyYjKYndVwn65cfJFfszh8pj/1qTASAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABz43HYXAwU8XXjFPhd8bauy4sktWbl2cqIzEeXZnhMxp7WFqpuybj+6N/NflfY6vYe5Zn88fvxfInOM1B2l7NQxMni8NSj/wCy1UuN5NNPXTRJp2/g1MD2nVRMU3Jmf5u27vmU11Wv0Ts4fz3UMcur+ziqlRbMtnhGOy4qzSas0l4t6XvwZoxfpiqaojbG3bPnt+WfDu5fVWqxNNNWfdnOfPbsnjnHtnufuGEqe39m8Y29lJyc42lHR7Dfivt/5eZz+LEbe7G/PL48f5s3E34yz7se+yeO/f7I93VXQd6l4R913S+G99FZK61tPXi/Ik/HpivOY2zlOyfP33+dJTi4qqmqKdv77+O3fHwjY0vZns4sBbE4qlBTsrJXunrduTfjp7qSWhkY7tGbszTRM5benDKPqs1VVXJzqmcvKF1jsywmAV8TWSfG3i/sZ9rD3Lv6IJqiE2GxNDFU/aYeqpLzTOK7dVE5VRlL7mlOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApe0+FpYrDQValJ2lo4JOUX8r+Gjv8AY0Ozpud+Yt7Zy3cY/ZXxE5U7dyDsrg6OFlP2FKetrymltPySt4Kz/JJ2lN38sXIy4Rt+7nDTnnluZ/OO1WcYbN6uGw9SNozcYrYTej0NPDdl4auxTXXE5zGe9q27Fubffqlm8dOeLe3iaEH52jJbOttfLVfTQ07NNFGyiZ6xt+SC1aw01zFMzEx8Y2/Jb9i8hyvM415ZkpKNNU7bLtbac076PyRo2ae/nmj7Qv3sNNFNqrfn5RPD4NTu3IcpaeDoVJTspKLbT2dG3eS8n89dPMjvYC1cic4mfhmy4uYm9VnsmY+S+hWhUi3SlUvFxupRS+JrThxRj9o9j4Wxha7tETnHx+MOrOIuzXTFW6VD2py/D4zEwlXoTbS0lCKbt5O6enl9zH7NqvRTVFrbxjb9ljEVZTGbu7MYajhcu2MPScY7T4pbUn4t2/H2K3aFVybv+Zv+nVJYnOhblFMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc2JzHB4GqnisQo+NtW+DXBXfE3f8P/kxM11bIynb0VsVbquUZUxmq12oymM5VZV5KLs7+znaz4Phwd0Xu27NeKuUTZ25RMcNufxfcHhbtuJpqjb84YDMK9LEdo54ijacZVG180+BdsWqow1Nudk5RHyaV6JjCT5ZR902LlFYO6wiW1Hy+HW+vzuz7Rg66blz/Mifw6ojf+ry/LxjZtYeFu1VXrcbdvt8/ovf+m0XOni4xpqT2aVovg3/AFbX+5qYbzXO2p/Nb/f7LjFYWpQlFV6jipfsu5OKdvPRN6rxu1qXInNHYu/iRVFG/LflG2VtWxVDCZXUxVeWzTU1LaknqnKGvnxdl9EZnatuq5hK6KIzmcvrCjh6Z/Hpp8//AFyUu1GU06/v15LRr/Dn+3j4X0MfsKicL3/xdmfdy8+PBexmFu3cu5GeXxjz3OjLMbhsVFxoV02nqv3LyunqvuZPbn5sVNyP0zllPlOzi7w1uqi1EVRlv+ruMdOAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZan2bqz7WTr4iO1QqPb+NpqcVeKdmno72tpayPXdjX7OIpps1R+amJ2fD+b3GLxE0WI7s5TGz9p3o6sclXaJZJHL6clNO7Un7jW3LZf4vx4sm7aortU/jWau73fKPjOXX7OMFN6q3NyqZ3+fTZ9GQx1CGX57UpUMLJxjKWzH3nom9b2baWuvyOrVc3sNTNVWUzEZz8f+1+uYvWO7NeXH32IK+YT9g1Og7TXu34WXFrTXX8Fy5bs1xbptU92qjZVMT+qfLPlUbOA/DuTVN3PKd0Rtj3e0aLwb/UYXGuM4xUlKO0ve0vH6/U24w9vuRRTbqivvTTnn5bcqss8u7Mx9cpmcs8Oe171d2ark0zbyz7uXtE5Z97Lzz3+WTdZdmWT47Kf1WJzGlCvUi9pTqJbM/hbte6Tav8k15JFSi7E0xMy0LlnEWrk0UUzNMTsmI++XxWM8Xk2Z5VHKqmPo1HLYThGrdytKMnazTsrfhFLtPETbwtddE7Y/vD5Zt3qcRFzuTTGfDc4cqWS4rPK2U1MFTj7PZUbzd6jtaVvHRJK13oUex7M12vxL096atuUxu2z9d6zjpvUUU3KZnKc0OW5JiYdo3iVFRowe1F7V5Tls7Orve2r4+SKHbV6zZiqxRvnLZ5RG9Nh7012ImZzn/tqzy7sAAAAAAAAAAAAAAAAAAAAAAAAAAAAAyWYYXN867Q1MtWPdGlFRa2U7zTjq1a19bp3dvkes7EtWe7TNP66s854ZTu/fYXr1uzaiuaO9Px3LTIuz+Ayaclhqd5LTblba8eHgl9CD/EWdFVFETsyz/dDZxdzEZzX0Z3Mf+4v8qv8A66hHY/8Ay/8A1T9IP9qr+qPurKeFp42hhcPV4OhV+zW00y5Xcm3VeqjmpT11zRVdqjyqj7qulQxtXD0qE5JRqKUovj8PxXtreyPQV9sTFVdcR/mREUTPw8tm7PbtnP8AZQjsbDxcnLOaaJz7uzLOd35vOn4ZZ8ZXGEpWwaVGUbNU3FypK8febltX1b10atd2tY8/cn885xOzPPKZ4ZR8I/fd55tOuqIryq37fPf8vvw80+XVKdXPcJKnFL+pVWkNlu11d6ePG3hexFfpmnD3onhT55/z7u8piiuJ/wCPnm1mbdmMvzurt1ouE7fHDj8rrg/v+Tr/AA5ncpuU1TsjLL4b1C9jLmHmO7unPOJVHZ+GbZdniy2rjfa0thybad48VHV8Lvwu+DOO27VnKqqf1xMRnx2Z7vhCe3dt3bUV0092eEbv5+zXHmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5sZi1g5RmqLk2+CXhZ+Nvn/Jrdj4mnD35uVbssuv/iri6e9RkiwGL/U157VGUXxV76q7+X0Je2sXRiqqK6N0bHGDp7kTEspmkdjtM4PiqVb+XOS/holw854TP/lT9oWJjK1V/VH0lw5b8eE/+FX/AHFnEbr39VKS/wD7v9UfdBhdqGDweImvctOm5bWylKTbSb8NNf8Agt3LFc03q485jyz3RCXvRN29RG/ZPHdKVYt0IuFSFSUqeytU9qpduLcXxS0urcSCKO9+mYiKs926MtsRMec/Qqw1Fyum5MRntynZ+XZ/Il05VCdXtHhqMXKTjt1JNyu4xd7KS8JL3VbzaIMRMU4W7VOyJyiMo3zHDjE7Zd/7dU8co6b/ANm1xGY/o8RsqhKWmtvDXTwIOxMbRhYrmuN+Xtn/AHZOMo78xEeTzLKyrUm3TcXfVNfj7cf5KXa1+L+Im5TunL6ZJsLHdt5OwzVkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAoc6yzG4zG+0oJbNktalvqktl2+q2fDXy9T2P2pgcLh/w79OdUzP+mJ2fPOPv8mZjMLeu3O9ROz55fafshy3KMfhsdGrNJRT8KjbS+atrfycpeH2n7T7X7Pv4Wuzap/NsynuxHnG6c9mzP8A0wjw2ExFF2Kqp2fOf7feVrmOVYfHVFWa2aii4qaWtmtU/NHl7OJrtR3d9O/L4w1a6e9GSpwfZd4eVL2uKbVOEoLZirtSvdu8tOPzNyzj8Hcmr8bOO9MT8Nnxjb7Qhvzeq73diPzTn9f7kslqyh+llgqHs9lR2ffS4t389rxvtfc2PFez8+9+J+2U/wBlGNbE96IjvZ555/zpuQz7KYqP9PB5xVjDTScYtq3CzT/sZWJ7SwETnbomqekfz9mrbu11bblunP8Af6f9rnJckwuTwfsNqU5fFOWspf2XyMPFY25iJjvbIjdEbod1VzVO1V4/J8fiMbOqknFt2/qO9vDwuvopL6HqMD2x2baw9Fq5RtiNs9yJjPrt+fdn5sW/g8RXcmqJ2fOf7fd05HluNweMdTFW2XFrSd9bq11sxWmuur+fnS7a7TwWLsRTYpyqifOmI2ZT55z8Nmz5JsFhr1quZuTsy45/aPuvTzLSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Sb/zjmVXqPc6DDenHRv6a1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsG/wDOOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/ADjmVXqGgw3px0NNa5YN/wCccyq9Q0GG9OOhprXLBv8AzjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/845lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/wA45lV6hoMN6cdDTWuWDf8AnHMqvUNBhvTjoaa1ywb/AM45lV6hoMN6cdDTWuWDf+ccyq9Q0GG9OOhprXLBv/OOZVeoaDDenHQ01rlg3/nHMqvUNBhvTjoaa1ywb/zjmVXqGgw3px0NNa5YN/5xzKr1DQYb046GmtcsG/8AOOZVeoaDDenHQ01rlg3/AJxzKr1DQYb046GmtcsK4tpwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH/2Q==">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2293,11 +1575,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:R48"/>
   <sheetViews>
@@ -2305,25 +1588,25 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.43809523809524" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.1428571428571" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.66666666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.88571428571429" style="5" customWidth="1"/>
-    <col min="10" max="11" width="3.33333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88571428571429" style="1" customWidth="1"/>
-    <col min="13" max="17" width="8.88571428571429" style="1"/>
-    <col min="18" max="18" width="8.88571428571429" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88571428571429" style="1"/>
+    <col min="8" max="8" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:18">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6">
         <v>1</v>
       </c>
@@ -2353,14 +1636,14 @@
       <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:18">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.95" customHeight="1">
       <c r="A2" s="6">
         <f>A1+1</f>
         <v>2</v>
@@ -2387,7 +1670,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="13"/>
@@ -2397,7 +1680,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" customHeight="1" spans="1:18">
+    <row r="3" spans="1:18" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A48" si="1">A2+1</f>
         <v>3</v>
@@ -2424,7 +1707,7 @@
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="14"/>
@@ -2434,7 +1717,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="4" spans="1:18" ht="19.95" customHeight="1">
       <c r="A4" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2463,7 +1746,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
+    <row r="5" spans="1:18" ht="19.95" customHeight="1">
       <c r="A5" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2491,7 +1774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
+    <row r="6" spans="1:18" ht="19.95" customHeight="1">
       <c r="A6" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2519,7 +1802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
+    <row r="7" spans="1:18" ht="19.95" customHeight="1">
       <c r="A7" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2547,7 +1830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" spans="1:18" ht="19.95" customHeight="1">
       <c r="A8" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2575,7 +1858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
+    <row r="9" spans="1:18" ht="19.95" customHeight="1">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2603,7 +1886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
+    <row r="10" spans="1:18" ht="19.95" customHeight="1">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2631,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
+    <row r="11" spans="1:18" ht="19.95" customHeight="1">
       <c r="A11" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2643,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7">
         <v>45825</v>
@@ -2659,19 +1942,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
+    <row r="12" spans="1:18" ht="19.95" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G12" s="7">
         <v>45825</v>
@@ -2687,19 +1970,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
+    <row r="13" spans="1:18" ht="19.95" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="7">
         <v>45826</v>
@@ -2712,22 +1995,22 @@
         <v>8</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="7">
         <v>45826</v>
@@ -2740,22 +2023,22 @@
         <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19.95" customHeight="1">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="7">
         <v>45826</v>
@@ -2768,22 +2051,22 @@
         <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19.95" customHeight="1">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G16" s="7">
         <v>45826</v>
@@ -2796,10 +2079,10 @@
         <v>29</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2827,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="19.95" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2855,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="19.95" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2867,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7">
         <v>45827</v>
@@ -2883,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="19.95" customHeight="1">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2911,7 +2194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="19.95" customHeight="1">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2939,7 +2222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="19.95" customHeight="1">
       <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2961,13 +2244,13 @@
         <v>45828</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="19.95" customHeight="1">
       <c r="A23" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2995,7 +2278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="19.95" customHeight="1">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3023,13 +2306,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="19.95" customHeight="1">
       <c r="A25" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1</v>
@@ -3051,13 +2334,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="19.95" customHeight="1">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -3079,7 +2362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="19.95" customHeight="1">
       <c r="A27" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3107,7 +2390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="19.95" customHeight="1">
       <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3119,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7">
         <v>45829</v>
@@ -3135,19 +2418,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" ht="19.95" customHeight="1">
       <c r="A29" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="7">
         <v>45830</v>
@@ -3160,22 +2443,22 @@
         <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="7">
         <v>45830</v>
@@ -3188,22 +2471,22 @@
         <v>13</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.95" customHeight="1">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" s="7">
         <v>45830</v>
@@ -3216,22 +2499,22 @@
         <v>18</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.95" customHeight="1">
       <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="7">
         <v>45830</v>
@@ -3244,10 +2527,10 @@
         <v>29</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.95" customHeight="1">
       <c r="A33" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3275,13 +2558,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:10">
+    <row r="34" spans="1:10" ht="19.95" customHeight="1">
       <c r="A34" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>1</v>
@@ -3303,7 +2586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:10">
+    <row r="35" spans="1:10" ht="19.95" customHeight="1">
       <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3331,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="19.95" customHeight="1">
       <c r="A36" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3359,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="19.95" customHeight="1">
       <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3387,7 +2670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:10">
+    <row r="38" spans="1:10" ht="19.95" customHeight="1">
       <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3415,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:10">
+    <row r="39" spans="1:10" ht="19.95" customHeight="1">
       <c r="A39" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3443,7 +2726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:10">
+    <row r="40" spans="1:10" ht="19.95" customHeight="1">
       <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3471,7 +2754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:10">
+    <row r="41" spans="1:10" ht="19.95" customHeight="1">
       <c r="A41" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3499,13 +2782,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:10">
+    <row r="42" spans="1:10" ht="19.95" customHeight="1">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>1</v>
@@ -3527,13 +2810,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:10">
+    <row r="43" spans="1:10" ht="19.95" customHeight="1">
       <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>1</v>
@@ -3555,7 +2838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:10">
+    <row r="44" spans="1:10" ht="19.95" customHeight="1">
       <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3567,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" s="7">
         <v>45833</v>
@@ -3583,19 +2866,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:10">
+    <row r="45" spans="1:10" ht="19.95" customHeight="1">
       <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="7">
         <v>45834</v>
@@ -3608,22 +2891,22 @@
         <v>13</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.95" customHeight="1">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="7">
         <v>45834</v>
@@ -3636,22 +2919,22 @@
         <v>13</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19.95" customHeight="1">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="7">
         <v>45834</v>
@@ -3664,22 +2947,22 @@
         <v>29</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19.95" customHeight="1">
       <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="7">
         <v>45834</v>
@@ -3692,7 +2975,7 @@
         <v>29</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +2984,7 @@
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="M3:R3"/>
   </mergeCells>
-  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.492125985" footer="0.492125985"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
